--- a/NIFTY/Financial.xlsx
+++ b/NIFTY/Financial.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="financial statment" sheetId="1" r:id="rId1"/>
+    <sheet name="Cash-flow" sheetId="2" r:id="rId2"/>
+    <sheet name="Intrinsic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Sale</t>
   </si>
@@ -153,16 +155,35 @@
   </si>
   <si>
     <t>9+6=10</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>1st  div</t>
+  </si>
+  <si>
+    <t>2st  div</t>
+  </si>
+  <si>
+    <t>3st  div</t>
+  </si>
+  <si>
+    <t>intrinsic value</t>
+  </si>
+  <si>
+    <t>expected return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +206,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F363F"/>
+      <name val="Graphik-regular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,11 +262,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,10 +277,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,30 +565,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -564,7 +600,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -584,7 +620,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -604,7 +640,7 @@
         <v>402000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -625,7 +661,7 @@
         <v>836000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -646,7 +682,7 @@
         <v>1290000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -666,7 +702,7 @@
         <v>527000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -686,7 +722,7 @@
         <v>-166200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -708,7 +744,7 @@
         <v>360800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -729,7 +765,7 @@
         <v>1650800</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -745,7 +781,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -766,7 +802,7 @@
         <v>175200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -787,7 +823,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="E15" s="6">
         <v>3</v>
       </c>
@@ -798,7 +834,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="E16" s="6" t="s">
         <v>37</v>
       </c>
@@ -810,7 +846,11 @@
         <v>540200</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="E17" s="6">
         <v>5</v>
       </c>
@@ -821,7 +861,15 @@
         <v>424612</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>C4/$C$4</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
         <v>40</v>
       </c>
@@ -833,7 +881,15 @@
         <v>964812</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:C28" si="0">C5/$C$4</f>
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="6">
         <v>7</v>
       </c>
@@ -844,7 +900,15 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="6">
         <v>8</v>
       </c>
@@ -855,7 +919,15 @@
         <v>225988</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5792207792207795E-2</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="6" t="s">
         <v>41</v>
       </c>
@@ -867,7 +939,15 @@
         <v>685988</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
@@ -877,6 +957,324 @@
       <c r="G22" s="1">
         <f>SUM(G21,G18)</f>
         <v>1650800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>5.1948051948051948E-3</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8883116883116881E-2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9740259740259742E-2</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9142857142857142E-2</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26:G33" si="1">G4/$G$11</f>
+        <v>3.1499878846619818E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>7.6571428571428572E-3</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="1"/>
+        <v>0.24351829416040707</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1485714285714285E-2</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.50642112914950332</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="1"/>
+        <v>0.78143930215653012</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31923915677247394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.10067845892900412</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="1"/>
+        <v>0.21856069784346982</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="15.75" thickBot="1">
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" ht="15.75" thickBot="1">
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" ref="G35:G44" si="2">G13/$G$22</f>
+        <v>0.10613036103707293</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13629755270172036</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="2"/>
+        <v>8.4807366125514899E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32723527986430823</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25721589532347955</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="2"/>
+        <v>0.58445117518778777</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2786527744124061</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13689605039980615</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="2"/>
+        <v>0.41554882481221228</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2356.4499999999998</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>E2/100+1</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f>(A2/F2)+(B2/(F2*F2))+(C2+D2)/(F2*F2*F2)</f>
+        <v>1886.0885662754656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <f>IF(D2&gt;A7,"OverValue","UnderValue")</f>
+        <v>OverValue</v>
       </c>
     </row>
   </sheetData>

--- a/NIFTY/Financial.xlsx
+++ b/NIFTY/Financial.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="financial statment" sheetId="1" r:id="rId1"/>
     <sheet name="Cash-flow" sheetId="2" r:id="rId2"/>
     <sheet name="Intrinsic" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Sale</t>
   </si>
@@ -173,6 +175,27 @@
   </si>
   <si>
     <t>expected return</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>amoutX</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1281,4 +1304,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <f>100*(POWER(B2/A2,1/D2))</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>POWER((1+C2/100),D2)</f>
+        <v>2.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>100*(POWER(B2,1/A2)-1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C15" si="0">100*(POWER(B3,1/A3)-1)</f>
+        <v>41.421356237309517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>25.99210498948732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>31.607401295249261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24.573093961551741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>25.99210498948732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>21.90136542044754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>18.920711500272102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>19.581317450040192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>17.461894308801895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>15.755791177065447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>14.352983608292025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>100*(POWER(B14,1/A14)-1)</f>
+        <v>14.777771543479856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>14.911672503541773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16" si="1">100*(POWER(B16,1/A16)-1)</f>
+        <v>14.869835499703509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>